--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K446"/>
+  <dimension ref="A1:K456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17139,6 +17139,392 @@
         <v>380.3185714285714</v>
       </c>
       <c r="K446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>367.1766666666667</v>
+      </c>
+      <c r="C447" t="n">
+        <v>360.2268421052632</v>
+      </c>
+      <c r="D447" t="n">
+        <v>356.725</v>
+      </c>
+      <c r="E447" t="n">
+        <v>356.5147058823529</v>
+      </c>
+      <c r="F447" t="n">
+        <v>357.0771428571429</v>
+      </c>
+      <c r="G447" t="n">
+        <v>369.665</v>
+      </c>
+      <c r="H447" t="n">
+        <v>369.4166666666667</v>
+      </c>
+      <c r="I447" t="n">
+        <v>375.44</v>
+      </c>
+      <c r="J447" t="n">
+        <v>379.6242857142857</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>373.9966666666666</v>
+      </c>
+      <c r="C448" t="n">
+        <v>370.0584210526316</v>
+      </c>
+      <c r="D448" t="n">
+        <v>363.055</v>
+      </c>
+      <c r="E448" t="n">
+        <v>360.4905882352941</v>
+      </c>
+      <c r="F448" t="n">
+        <v>370.7842857142857</v>
+      </c>
+      <c r="G448" t="n">
+        <v>374.465</v>
+      </c>
+      <c r="H448" t="n">
+        <v>381.7066666666666</v>
+      </c>
+      <c r="I448" t="n">
+        <v>384.11</v>
+      </c>
+      <c r="J448" t="n">
+        <v>388.9585714285714</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>370.1933333333333</v>
+      </c>
+      <c r="C449" t="n">
+        <v>374.2852631578948</v>
+      </c>
+      <c r="D449" t="n">
+        <v>362.17</v>
+      </c>
+      <c r="E449" t="n">
+        <v>361.5035294117647</v>
+      </c>
+      <c r="F449" t="n">
+        <v>369.3757142857143</v>
+      </c>
+      <c r="G449" t="n">
+        <v>380.14</v>
+      </c>
+      <c r="H449" t="n">
+        <v>375.8233333333333</v>
+      </c>
+      <c r="I449" t="n">
+        <v>378.01</v>
+      </c>
+      <c r="J449" t="n">
+        <v>383.4614285714285</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>367.33</v>
+      </c>
+      <c r="C450" t="n">
+        <v>372.4463157894737</v>
+      </c>
+      <c r="D450" t="n">
+        <v>367.615</v>
+      </c>
+      <c r="E450" t="n">
+        <v>368.1076470588236</v>
+      </c>
+      <c r="F450" t="n">
+        <v>376.1257142857143</v>
+      </c>
+      <c r="G450" t="n">
+        <v>377.975</v>
+      </c>
+      <c r="H450" t="n">
+        <v>383.71</v>
+      </c>
+      <c r="I450" t="n">
+        <v>377.19</v>
+      </c>
+      <c r="J450" t="n">
+        <v>372.6014285714285</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>374.41</v>
+      </c>
+      <c r="C451" t="n">
+        <v>380.9568421052632</v>
+      </c>
+      <c r="D451" t="n">
+        <v>377.79</v>
+      </c>
+      <c r="E451" t="n">
+        <v>374.8382352941176</v>
+      </c>
+      <c r="F451" t="n">
+        <v>373.4157142857143</v>
+      </c>
+      <c r="G451" t="n">
+        <v>387.7</v>
+      </c>
+      <c r="H451" t="n">
+        <v>391.65</v>
+      </c>
+      <c r="I451" t="n">
+        <v>386.23</v>
+      </c>
+      <c r="J451" t="n">
+        <v>383.9014285714285</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>382.0466666666667</v>
+      </c>
+      <c r="C452" t="n">
+        <v>375.2647368421053</v>
+      </c>
+      <c r="D452" t="n">
+        <v>368.605</v>
+      </c>
+      <c r="E452" t="n">
+        <v>369.8623529411765</v>
+      </c>
+      <c r="F452" t="n">
+        <v>374.1071428571428</v>
+      </c>
+      <c r="G452" t="n">
+        <v>385.635</v>
+      </c>
+      <c r="H452" t="n">
+        <v>388.0966666666667</v>
+      </c>
+      <c r="I452" t="n">
+        <v>386.67</v>
+      </c>
+      <c r="J452" t="n">
+        <v>379.7742857142857</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="C453" t="n">
+        <v>362.8247368421053</v>
+      </c>
+      <c r="D453" t="n">
+        <v>363.98</v>
+      </c>
+      <c r="E453" t="n">
+        <v>366.3876470588235</v>
+      </c>
+      <c r="F453" t="n">
+        <v>369.6814285714286</v>
+      </c>
+      <c r="G453" t="n">
+        <v>375.11</v>
+      </c>
+      <c r="H453" t="n">
+        <v>383.7</v>
+      </c>
+      <c r="I453" t="n">
+        <v>376.27</v>
+      </c>
+      <c r="J453" t="n">
+        <v>379.3628571428572</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>381.3</v>
+      </c>
+      <c r="C454" t="n">
+        <v>378.56</v>
+      </c>
+      <c r="D454" t="n">
+        <v>382.955</v>
+      </c>
+      <c r="E454" t="n">
+        <v>377.3558823529411</v>
+      </c>
+      <c r="F454" t="n">
+        <v>377.6828571428572</v>
+      </c>
+      <c r="G454" t="n">
+        <v>391.325</v>
+      </c>
+      <c r="H454" t="n">
+        <v>391.99</v>
+      </c>
+      <c r="I454" t="n">
+        <v>383.89</v>
+      </c>
+      <c r="J454" t="n">
+        <v>390.9957142857143</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="n">
+        <v>373.64</v>
+      </c>
+      <c r="D455" t="n">
+        <v>366.2</v>
+      </c>
+      <c r="E455" t="n">
+        <v>368.8494117647058</v>
+      </c>
+      <c r="F455" t="n">
+        <v>372.7314285714286</v>
+      </c>
+      <c r="G455" t="n">
+        <v>381.07</v>
+      </c>
+      <c r="H455" t="n">
+        <v>381.1533333333334</v>
+      </c>
+      <c r="I455" t="n">
+        <v>378.61</v>
+      </c>
+      <c r="J455" t="n">
+        <v>385.5728571428572</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="n">
+        <v>379.0773684210527</v>
+      </c>
+      <c r="D456" t="n">
+        <v>378.265</v>
+      </c>
+      <c r="E456" t="n">
+        <v>369.3182352941176</v>
+      </c>
+      <c r="F456" t="n">
+        <v>374.8771428571428</v>
+      </c>
+      <c r="G456" t="n">
+        <v>386.205</v>
+      </c>
+      <c r="H456" t="n">
+        <v>390.7133333333333</v>
+      </c>
+      <c r="I456" t="n">
+        <v>387.47</v>
+      </c>
+      <c r="J456" t="n">
+        <v>388.7342857142857</v>
+      </c>
+      <c r="K456" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17155,7 +17541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22553,6 +22939,106 @@
       </c>
       <c r="B539" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -22721,28 +23207,28 @@
         <v>0.0847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6531237181759991</v>
+        <v>0.6119896390591063</v>
       </c>
       <c r="J2" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K2" t="n">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0777146298032686</v>
+        <v>0.0715743265001173</v>
       </c>
       <c r="M2" t="n">
-        <v>11.29425527644375</v>
+        <v>11.13223203514391</v>
       </c>
       <c r="N2" t="n">
-        <v>281.0117947529891</v>
+        <v>277.2252847530764</v>
       </c>
       <c r="O2" t="n">
-        <v>16.76340641853526</v>
+        <v>16.6500836260085</v>
       </c>
       <c r="P2" t="n">
-        <v>366.4504211671002</v>
+        <v>366.826909648204</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22798,28 +23284,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3109534580117339</v>
+        <v>0.2986061906141058</v>
       </c>
       <c r="J3" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K3" t="n">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06643608299728265</v>
+        <v>0.06374475526371948</v>
       </c>
       <c r="M3" t="n">
-        <v>6.550765032026962</v>
+        <v>6.514136587336987</v>
       </c>
       <c r="N3" t="n">
-        <v>75.22425392110647</v>
+        <v>74.56814550104917</v>
       </c>
       <c r="O3" t="n">
-        <v>8.673191680177862</v>
+        <v>8.635284911399808</v>
       </c>
       <c r="P3" t="n">
-        <v>367.541529205413</v>
+        <v>367.655934073581</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22875,28 +23361,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3285411798857024</v>
+        <v>0.3275579732248389</v>
       </c>
       <c r="J4" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K4" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06228202865019106</v>
+        <v>0.06401409722770257</v>
       </c>
       <c r="M4" t="n">
-        <v>7.17607170293734</v>
+        <v>7.162952139647112</v>
       </c>
       <c r="N4" t="n">
-        <v>89.95009708818577</v>
+        <v>89.29404017859902</v>
       </c>
       <c r="O4" t="n">
-        <v>9.484202501432884</v>
+        <v>9.449552379800803</v>
       </c>
       <c r="P4" t="n">
-        <v>360.6388742768636</v>
+        <v>360.6472715677368</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22952,28 +23438,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3451486387671266</v>
+        <v>0.3288777334937387</v>
       </c>
       <c r="J5" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K5" t="n">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07257974971756076</v>
+        <v>0.06860711641611639</v>
       </c>
       <c r="M5" t="n">
-        <v>7.198439372941593</v>
+        <v>7.158253529004016</v>
       </c>
       <c r="N5" t="n">
-        <v>85.03352291357754</v>
+        <v>84.21342491425872</v>
       </c>
       <c r="O5" t="n">
-        <v>9.221362313323208</v>
+        <v>9.176787287186007</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2951607186957</v>
+        <v>362.4454564662879</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23029,28 +23515,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3097131440736812</v>
+        <v>0.2906144862682339</v>
       </c>
       <c r="J6" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K6" t="n">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06117079263630465</v>
+        <v>0.05611327780355957</v>
       </c>
       <c r="M6" t="n">
-        <v>6.903517619424073</v>
+        <v>6.846403132911345</v>
       </c>
       <c r="N6" t="n">
-        <v>82.16184365827824</v>
+        <v>81.35785453338673</v>
       </c>
       <c r="O6" t="n">
-        <v>9.064317054156824</v>
+        <v>9.019858897642841</v>
       </c>
       <c r="P6" t="n">
-        <v>368.1039367529726</v>
+        <v>368.2814593343124</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23106,28 +23592,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2393786218253943</v>
+        <v>0.2339432868146796</v>
       </c>
       <c r="J7" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K7" t="n">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03770988516476237</v>
+        <v>0.03740042655388587</v>
       </c>
       <c r="M7" t="n">
-        <v>6.746081790882692</v>
+        <v>6.722445589195278</v>
       </c>
       <c r="N7" t="n">
-        <v>81.45403838771047</v>
+        <v>80.55384131993176</v>
       </c>
       <c r="O7" t="n">
-        <v>9.025189105371171</v>
+        <v>8.975179180380287</v>
       </c>
       <c r="P7" t="n">
-        <v>376.1070939371387</v>
+        <v>376.1571221548896</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23183,28 +23669,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2555305548991919</v>
+        <v>0.2522864167601857</v>
       </c>
       <c r="J8" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K8" t="n">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04080306687899604</v>
+        <v>0.04124558927800037</v>
       </c>
       <c r="M8" t="n">
-        <v>7.097635646277849</v>
+        <v>7.063618366820206</v>
       </c>
       <c r="N8" t="n">
-        <v>85.76452031892433</v>
+        <v>84.87555624453886</v>
       </c>
       <c r="O8" t="n">
-        <v>9.260913579065747</v>
+        <v>9.21279307509611</v>
       </c>
       <c r="P8" t="n">
-        <v>378.0647310772644</v>
+        <v>378.0942327159528</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23260,28 +23746,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1296129533532549</v>
+        <v>0.1278535516406378</v>
       </c>
       <c r="J9" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K9" t="n">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01051616411191525</v>
+        <v>0.01069684784566871</v>
       </c>
       <c r="M9" t="n">
-        <v>7.080534651740997</v>
+        <v>7.012910155900349</v>
       </c>
       <c r="N9" t="n">
-        <v>88.94906709014825</v>
+        <v>87.30341397201026</v>
       </c>
       <c r="O9" t="n">
-        <v>9.431281306914148</v>
+        <v>9.343629593044144</v>
       </c>
       <c r="P9" t="n">
-        <v>378.5016648048405</v>
+        <v>378.5177948017718</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23337,28 +23823,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1518725963142387</v>
+        <v>0.1298370691268527</v>
       </c>
       <c r="J10" t="n">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="K10" t="n">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01346848096714126</v>
+        <v>0.01024803639500649</v>
       </c>
       <c r="M10" t="n">
-        <v>7.73525506744402</v>
+        <v>7.683133735613126</v>
       </c>
       <c r="N10" t="n">
-        <v>94.68408427465189</v>
+        <v>93.63921453197808</v>
       </c>
       <c r="O10" t="n">
-        <v>9.730574714509514</v>
+        <v>9.67673573742603</v>
       </c>
       <c r="P10" t="n">
-        <v>384.3989403453763</v>
+        <v>384.6040042666814</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -23395,7 +23881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K446"/>
+  <dimension ref="A1:K456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47417,6 +47903,568 @@
         </is>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>-34.98911814464368,173.47978108315291</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>-34.98960839085073,173.48045130537471</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-34.98974349728519,173.48133360742005</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-34.989899384954384,173.48220087413193</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-34.99014769299271,173.48304343638156</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>-34.99024201493102,173.48394063710305</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>-34.99033863554763,173.48481895342127</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>-34.99027398707239,173.48571879558358</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>-34.99032140172516,173.4866150631487</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>-34.989068961211245,173.4798259429004</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>-34.989526411980094,173.48049231374216</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>-34.98968728507288,173.4813456497866</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>-34.98986493034551,173.48221291611824</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>-34.99003013578638,173.4830898252746</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>-34.9901996215337,173.4839512440467</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>-34.99022798150095,173.48482636143223</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>-34.99019589630688,173.48572331923097</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>-34.99023777103399,173.48662661691097</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>-34.98909638951065,173.4798009258142</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>-34.98949116720536,173.48050994424185</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>-34.989695144126365,173.48134396613915</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>-34.989856152295815,173.48221598407054</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>-34.99004221618386,173.48308505827188</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>-34.990149500171846,173.48396378453398</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>-34.99028095258677,173.48482281515314</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>-34.99025083906012,173.48572013650409</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>-34.99028702277891,173.4866198126778</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>-34.989117038858,173.47978209173044</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>-34.989506500942824,173.48050227384576</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>-34.989646790966354,173.4813543248464</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-34.98979892165266,173.4822359863199</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>-34.98998432583916,173.48310790216158</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>-34.99016862136118,173.48395900036746</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>-34.99020994432089,173.48482756897445</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-34.99025822480723,173.48571970866183</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>-34.99038432313149,173.48660637040422</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>-34.98906598039663,173.47982866167123</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-34.98943553741982,173.48053777190586</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-34.989556434048076,173.4813736819948</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-34.98974059502394,173.48225637158936</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-34.99000756774105,173.48309873076673</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>-34.99008273056665,173.48398049042868</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>-34.990138455862905,173.48483235493578</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>-34.99017680144825,173.48572442535811</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>-34.99028308059145,173.48662035729967</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-34.98901090743176,173.47987889311992</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-34.98948300003704,173.48051402970353</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-34.989637999482596,173.48135620824644</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-34.98978371554103,173.48224130088815</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-34.990001637809385,173.4831010707541</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-34.99010096856093,173.48397592724712</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-34.99017044859864,173.48483021310852</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-34.99017283836439,173.48572465493157</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-34.99032005779764,173.48661524881538</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-34.98908523549645,173.4798110992851</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-34.989586728769375,173.48046214142659</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-34.98967907080792,173.48134740953074</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-34.98981382700622,173.48223077686524</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-34.99003959427204,173.48308609289532</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-34.990193924920845,173.48395266935393</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-34.990210034356735,173.48482756294678</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-34.99026651125519,173.48571922864357</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-34.99032374399886,173.48661473955815</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-34.989016292131126,173.47987398179836</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-34.989455523066155,173.48052777449914</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-34.98951056736514,173.4813835079909</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-34.9897187773363,173.4822639969057</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-34.98997097124047,173.48311317196445</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-34.99005071471658,173.48398850085158</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-34.99013539464427,173.48483255987603</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-34.99019787784881,173.48572320444416</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-34.99021951921775,173.48662913843614</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-34.98949654761817,173.48050725279808</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-34.98965935657188,173.48135163291533</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-34.989792493591416,173.48223823294117</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-34.990013436413065,173.48309641495243</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-34.99014128645072,173.48396583962565</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-34.99023296348411,173.48482602790133</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-34.990245434854906,173.48572044955935</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-34.990268105398805,173.48662242615495</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-34.98945120908064,173.48052993248172</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-34.989552215911736,173.48137458564446</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-34.989788430812006,173.48223965289117</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-34.989995034021774,173.48310367664874</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-34.990095934344616,173.483977186818</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-34.990146889220085,173.48483179034542</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-34.99016563275733,173.4857250723379</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-34.990239780525684,173.48662633929555</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -23052,7 +23052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23143,35 +23143,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23230,27 +23235,28 @@
       <c r="P2" t="n">
         <v>366.826909648204</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.47736583516138 -34.99176606872746, 173.4834632180323 -34.985080866927454)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.4773658351614</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.99176606872746</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.4834632180323</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.98508086692745</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.4804145265969</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.98842346782746</v>
       </c>
     </row>
@@ -23307,27 +23313,28 @@
       <c r="P3" t="n">
         <v>367.655934073581</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.4789487121826 -34.99261206838123, 173.48281388329448 -34.9848851292161)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.4789487121826</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.99261206838123</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.4828138832945</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.9848851292161</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.4808812977386</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.98874859879867</v>
       </c>
     </row>
@@ -23384,27 +23391,28 @@
       <c r="P4" t="n">
         <v>360.6472715677368</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.48065493805498 -34.99291131486293, 173.48241751030804 -34.98468367269345)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.480654938055</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.99291131486293</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.482417510308</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.98468367269345</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.4815362241815</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.98879749377819</v>
       </c>
     </row>
@@ -23461,27 +23469,28 @@
       <c r="P5" t="n">
         <v>362.4454564662879</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.48112103691105 -34.99298890132418, 173.4839273445169 -34.984959293357306)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.481121036911</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.99298890132418</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.4839273445169</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.98495929335731</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.482524190714</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.98897409734074</v>
       </c>
     </row>
@@ -23538,27 +23547,28 @@
       <c r="P6" t="n">
         <v>368.2814593343124</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.48183493906947 -34.993210103622935, 173.48497075831423 -34.98526324195652)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.4818349390695</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.99321010362294</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.4849707583142</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.98526324195652</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.4834028486919</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.98923667278973</v>
       </c>
     </row>
@@ -23615,27 +23625,28 @@
       <c r="P7" t="n">
         <v>376.1571221548896</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.48312372670486 -34.99350687719937, 173.4851710912041 -34.985323894022144)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.4831237267049</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.99350687719937</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.4851710912041</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.98532389402214</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.4841474089545</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.98941538561076</v>
       </c>
     </row>
@@ -23692,27 +23703,28 @@
       <c r="P8" t="n">
         <v>378.0942327159528</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.48459627264003 -34.99366470844195, 173.48515470441853 -34.98532322174642)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.48459627264</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.99366470844195</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.4851547044185</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.98532322174642</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.4848754885293</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.98949396509418</v>
       </c>
     </row>
@@ -23769,27 +23781,28 @@
       <c r="P9" t="n">
         <v>378.5177948017718</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.4855228991381 -34.99365557736593, 173.48600628061362 -34.98531092768326)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.4855228991381</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.99365557736593</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.4860062806136</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.98531092768326</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.4857645898759</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.98948325252459</v>
       </c>
     </row>
@@ -23846,27 +23859,28 @@
       <c r="P10" t="n">
         <v>384.6040042666814</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.48614515396224 -34.99372265020861, 173.48729190700308 -34.985421860813396)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.4861451539622</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.99372265020861</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.4872919070031</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.9854218608134</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.4867185304827</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.98957225551101</v>
       </c>
     </row>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K456"/>
+  <dimension ref="A1:K458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17525,6 +17525,82 @@
         <v>388.7342857142857</v>
       </c>
       <c r="K456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="n">
+        <v>361.2168421052632</v>
+      </c>
+      <c r="D457" t="n">
+        <v>358.055</v>
+      </c>
+      <c r="E457" t="n">
+        <v>352.5147058823529</v>
+      </c>
+      <c r="F457" t="n">
+        <v>363.5671428571428</v>
+      </c>
+      <c r="G457" t="n">
+        <v>381.975</v>
+      </c>
+      <c r="H457" t="n">
+        <v>383.4766666666667</v>
+      </c>
+      <c r="I457" t="n">
+        <v>382.73</v>
+      </c>
+      <c r="J457" t="n">
+        <v>388.0642857142857</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>416.5366666666667</v>
+      </c>
+      <c r="C458" t="n">
+        <v>372.8757894736842</v>
+      </c>
+      <c r="D458" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="E458" t="n">
+        <v>376.0676470588235</v>
+      </c>
+      <c r="F458" t="n">
+        <v>377.6642857142857</v>
+      </c>
+      <c r="G458" t="n">
+        <v>382.12</v>
+      </c>
+      <c r="H458" t="n">
+        <v>383.1866666666667</v>
+      </c>
+      <c r="I458" t="n">
+        <v>376.74</v>
+      </c>
+      <c r="J458" t="n">
+        <v>380.2985714285714</v>
+      </c>
+      <c r="K458" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17541,7 +17617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23039,6 +23115,26 @@
       </c>
       <c r="B549" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -23212,28 +23308,28 @@
         <v>0.0847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6119896390591063</v>
+        <v>0.6308068233866448</v>
       </c>
       <c r="J2" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K2" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0715743265001173</v>
+        <v>0.07534466149297603</v>
       </c>
       <c r="M2" t="n">
-        <v>11.13223203514391</v>
+        <v>11.248445432465</v>
       </c>
       <c r="N2" t="n">
-        <v>277.2252847530764</v>
+        <v>279.6455769107341</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6500836260085</v>
+        <v>16.72260676182795</v>
       </c>
       <c r="P2" t="n">
-        <v>366.826909648204</v>
+        <v>366.6516140864469</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23290,28 +23386,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2986061906141058</v>
+        <v>0.2909843368555285</v>
       </c>
       <c r="J3" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K3" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06374475526371948</v>
+        <v>0.06094545096998349</v>
       </c>
       <c r="M3" t="n">
-        <v>6.514136587336987</v>
+        <v>6.52149382694587</v>
       </c>
       <c r="N3" t="n">
-        <v>74.56814550104917</v>
+        <v>74.69538809634993</v>
       </c>
       <c r="O3" t="n">
-        <v>8.635284911399808</v>
+        <v>8.642649367893501</v>
       </c>
       <c r="P3" t="n">
-        <v>367.655934073581</v>
+        <v>367.7275410855063</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23368,28 +23464,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3275579732248389</v>
+        <v>0.3228314119237654</v>
       </c>
       <c r="J4" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06401409722770257</v>
+        <v>0.06270826533782503</v>
       </c>
       <c r="M4" t="n">
-        <v>7.162952139647112</v>
+        <v>7.15359416127269</v>
       </c>
       <c r="N4" t="n">
-        <v>89.29404017859902</v>
+        <v>89.15535749959201</v>
       </c>
       <c r="O4" t="n">
-        <v>9.449552379800803</v>
+        <v>9.442211472933236</v>
       </c>
       <c r="P4" t="n">
-        <v>360.6472715677368</v>
+        <v>360.691542044183</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23446,28 +23542,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3288777334937387</v>
+        <v>0.323117040285926</v>
       </c>
       <c r="J5" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K5" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06860711641611639</v>
+        <v>0.06637765296874787</v>
       </c>
       <c r="M5" t="n">
-        <v>7.158253529004016</v>
+        <v>7.177589803910259</v>
       </c>
       <c r="N5" t="n">
-        <v>84.21342491425872</v>
+        <v>84.66039357838167</v>
       </c>
       <c r="O5" t="n">
-        <v>9.176787287186007</v>
+        <v>9.201108279896594</v>
       </c>
       <c r="P5" t="n">
-        <v>362.4454564662879</v>
+        <v>362.4992367402174</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23524,28 +23620,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2906144862682339</v>
+        <v>0.2861320104006729</v>
       </c>
       <c r="J6" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K6" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05611327780355957</v>
+        <v>0.05477112091840353</v>
       </c>
       <c r="M6" t="n">
-        <v>6.846403132911345</v>
+        <v>6.845824507152462</v>
       </c>
       <c r="N6" t="n">
-        <v>81.35785453338673</v>
+        <v>81.3295198974626</v>
       </c>
       <c r="O6" t="n">
-        <v>9.019858897642841</v>
+        <v>9.018288080199179</v>
       </c>
       <c r="P6" t="n">
-        <v>368.2814593343124</v>
+        <v>368.3235818784082</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23602,28 +23698,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2339432868146796</v>
+        <v>0.2338459547730095</v>
       </c>
       <c r="J7" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K7" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03740042655388587</v>
+        <v>0.03772674035661838</v>
       </c>
       <c r="M7" t="n">
-        <v>6.722445589195278</v>
+        <v>6.691715827757841</v>
       </c>
       <c r="N7" t="n">
-        <v>80.55384131993176</v>
+        <v>80.17924278315192</v>
       </c>
       <c r="O7" t="n">
-        <v>8.975179180380287</v>
+        <v>8.954286279941686</v>
       </c>
       <c r="P7" t="n">
-        <v>376.1571221548896</v>
+        <v>376.1580383866874</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23680,28 +23776,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2522864167601857</v>
+        <v>0.2511824450474024</v>
       </c>
       <c r="J8" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K8" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04124558927800037</v>
+        <v>0.04128782499673889</v>
       </c>
       <c r="M8" t="n">
-        <v>7.063618366820206</v>
+        <v>7.036645307924605</v>
       </c>
       <c r="N8" t="n">
-        <v>84.87555624453886</v>
+        <v>84.48423867814112</v>
       </c>
       <c r="O8" t="n">
-        <v>9.21279307509611</v>
+        <v>9.191530812554626</v>
       </c>
       <c r="P8" t="n">
-        <v>378.0942327159528</v>
+        <v>378.1046284256412</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23758,28 +23854,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1278535516406378</v>
+        <v>0.1259888869643861</v>
       </c>
       <c r="J9" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K9" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01069684784566871</v>
+        <v>0.01048501716598405</v>
       </c>
       <c r="M9" t="n">
-        <v>7.012910155900349</v>
+        <v>6.993085625882965</v>
       </c>
       <c r="N9" t="n">
-        <v>87.30341397201026</v>
+        <v>86.95058657337158</v>
       </c>
       <c r="O9" t="n">
-        <v>9.343629593044144</v>
+        <v>9.324729839162719</v>
       </c>
       <c r="P9" t="n">
-        <v>378.5177948017718</v>
+        <v>378.5354259623692</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23836,28 +23932,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1298370691268527</v>
+        <v>0.1264442641732798</v>
       </c>
       <c r="J10" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K10" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01024803639500649</v>
+        <v>0.009805957494427919</v>
       </c>
       <c r="M10" t="n">
-        <v>7.683133735613126</v>
+        <v>7.664424066851863</v>
       </c>
       <c r="N10" t="n">
-        <v>93.63921453197808</v>
+        <v>93.33149715278257</v>
       </c>
       <c r="O10" t="n">
-        <v>9.67673573742603</v>
+        <v>9.660822798953648</v>
       </c>
       <c r="P10" t="n">
-        <v>384.6040042666814</v>
+        <v>384.6361459742501</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23895,7 +23991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K456"/>
+  <dimension ref="A1:K458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48479,6 +48575,116 @@
         </is>
       </c>
     </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-34.98960013591263,173.48045543475413</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-34.98973168650454,173.48133613765003</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-34.9899340485631,173.48218875908913</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-34.990092032506446,173.48306540041463</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-34.990133293528515,173.4839678394725</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-34.990212045157165,173.48482742832897</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-34.99020832597898,173.48572259920454</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>-34.990245783402116,173.48662550998583</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-34.98876217737531,173.48010575601165</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-34.989502919852484,173.480504065215</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-34.989628719583024,173.4813581962794</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-34.989729941059714,173.48226009516725</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-34.98997113051549,173.4831131091136</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-34.99013201289457,173.48396815988994</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-34.99021465619654,173.4848272535267</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-34.99026227796113,173.4857194738703</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>-34.990315360450936,173.48661589776466</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K458"/>
+  <dimension ref="A1:K463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17603,6 +17603,201 @@
       <c r="K458" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>430.92</v>
+      </c>
+      <c r="C459" t="n">
+        <v>373.2131578947368</v>
+      </c>
+      <c r="D459" t="n">
+        <v>363.845</v>
+      </c>
+      <c r="E459" t="n">
+        <v>370.4658823529412</v>
+      </c>
+      <c r="F459" t="n">
+        <v>374.1514285714285</v>
+      </c>
+      <c r="G459" t="n">
+        <v>382.435</v>
+      </c>
+      <c r="H459" t="n">
+        <v>383.79</v>
+      </c>
+      <c r="I459" t="n">
+        <v>380.16</v>
+      </c>
+      <c r="J459" t="n">
+        <v>383.5628571428572</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>373.59</v>
+      </c>
+      <c r="C460" t="n">
+        <v>376.1147368421053</v>
+      </c>
+      <c r="D460" t="n">
+        <v>365.37</v>
+      </c>
+      <c r="E460" t="n">
+        <v>368.0276470588236</v>
+      </c>
+      <c r="F460" t="n">
+        <v>375.1614285714285</v>
+      </c>
+      <c r="G460" t="n">
+        <v>376.61</v>
+      </c>
+      <c r="H460" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="I460" t="n">
+        <v>375.55</v>
+      </c>
+      <c r="J460" t="n">
+        <v>384.3628571428572</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>375.7633333333333</v>
+      </c>
+      <c r="C461" t="n">
+        <v>376.6963157894737</v>
+      </c>
+      <c r="D461" t="n">
+        <v>366.065</v>
+      </c>
+      <c r="E461" t="n">
+        <v>370.4788235294118</v>
+      </c>
+      <c r="F461" t="n">
+        <v>373.8228571428572</v>
+      </c>
+      <c r="G461" t="n">
+        <v>380.435</v>
+      </c>
+      <c r="H461" t="n">
+        <v>373.4033333333334</v>
+      </c>
+      <c r="I461" t="n">
+        <v>375.72</v>
+      </c>
+      <c r="J461" t="n">
+        <v>386.8557142857143</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>380.4266666666666</v>
+      </c>
+      <c r="C462" t="n">
+        <v>372.92</v>
+      </c>
+      <c r="D462" t="n">
+        <v>362.195</v>
+      </c>
+      <c r="E462" t="n">
+        <v>371.5847058823529</v>
+      </c>
+      <c r="F462" t="n">
+        <v>373.8757142857143</v>
+      </c>
+      <c r="G462" t="n">
+        <v>373.385</v>
+      </c>
+      <c r="H462" t="n">
+        <v>379.3266666666667</v>
+      </c>
+      <c r="I462" t="n">
+        <v>383.62</v>
+      </c>
+      <c r="J462" t="n">
+        <v>388.1214285714286</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>370.9866666666667</v>
+      </c>
+      <c r="C463" t="n">
+        <v>371.7405263157895</v>
+      </c>
+      <c r="D463" t="n">
+        <v>368.715</v>
+      </c>
+      <c r="E463" t="n">
+        <v>370.8994117647059</v>
+      </c>
+      <c r="F463" t="n">
+        <v>374.3928571428572</v>
+      </c>
+      <c r="G463" t="n">
+        <v>380.405</v>
+      </c>
+      <c r="H463" t="n">
+        <v>383.9966666666666</v>
+      </c>
+      <c r="I463" t="n">
+        <v>382.74</v>
+      </c>
+      <c r="J463" t="n">
+        <v>384.1657142857143</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17617,7 +17812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23135,6 +23330,56 @@
       </c>
       <c r="B551" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -23308,28 +23553,28 @@
         <v>0.0847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6308068233866448</v>
+        <v>0.6398951892194986</v>
       </c>
       <c r="J2" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K2" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07534466149297603</v>
+        <v>0.07772974131428434</v>
       </c>
       <c r="M2" t="n">
-        <v>11.248445432465</v>
+        <v>11.33769524979803</v>
       </c>
       <c r="N2" t="n">
-        <v>279.6455769107341</v>
+        <v>282.931774900026</v>
       </c>
       <c r="O2" t="n">
-        <v>16.72260676182795</v>
+        <v>16.8205759384162</v>
       </c>
       <c r="P2" t="n">
-        <v>366.6516140864469</v>
+        <v>366.5671785614227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23386,28 +23631,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2909843368555285</v>
+        <v>0.2885511986330341</v>
       </c>
       <c r="J3" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06094545096998349</v>
+        <v>0.06139363923266983</v>
       </c>
       <c r="M3" t="n">
-        <v>6.52149382694587</v>
+        <v>6.467946684615674</v>
       </c>
       <c r="N3" t="n">
-        <v>74.69538809634993</v>
+        <v>73.86772721869315</v>
       </c>
       <c r="O3" t="n">
-        <v>8.642649367893501</v>
+        <v>8.594633629113758</v>
       </c>
       <c r="P3" t="n">
-        <v>367.7275410855063</v>
+        <v>367.7505723464163</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23464,28 +23709,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3228314119237654</v>
+        <v>0.3144594802692385</v>
       </c>
       <c r="J4" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06270826533782503</v>
+        <v>0.06097886212973791</v>
       </c>
       <c r="M4" t="n">
-        <v>7.15359416127269</v>
+        <v>7.10846480742736</v>
       </c>
       <c r="N4" t="n">
-        <v>89.15535749959201</v>
+        <v>88.32929982429174</v>
       </c>
       <c r="O4" t="n">
-        <v>9.442211472933236</v>
+        <v>9.398366870062677</v>
       </c>
       <c r="P4" t="n">
-        <v>360.691542044183</v>
+        <v>360.7705950336888</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23542,28 +23787,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.323117040285926</v>
+        <v>0.3219887864302398</v>
       </c>
       <c r="J5" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K5" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06637765296874787</v>
+        <v>0.06743725037743475</v>
       </c>
       <c r="M5" t="n">
-        <v>7.177589803910259</v>
+        <v>7.105076149708076</v>
       </c>
       <c r="N5" t="n">
-        <v>84.66039357838167</v>
+        <v>83.7134466302645</v>
       </c>
       <c r="O5" t="n">
-        <v>9.201108279896594</v>
+        <v>9.149505266967417</v>
       </c>
       <c r="P5" t="n">
-        <v>362.4992367402174</v>
+        <v>362.5098744957595</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23620,28 +23865,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2861320104006729</v>
+        <v>0.2831064606921425</v>
       </c>
       <c r="J6" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05477112091840353</v>
+        <v>0.05489788829221165</v>
       </c>
       <c r="M6" t="n">
-        <v>6.845824507152462</v>
+        <v>6.782115852802385</v>
       </c>
       <c r="N6" t="n">
-        <v>81.3295198974626</v>
+        <v>80.42150128481278</v>
       </c>
       <c r="O6" t="n">
-        <v>9.018288080199179</v>
+        <v>8.967803593122051</v>
       </c>
       <c r="P6" t="n">
-        <v>368.3235818784082</v>
+        <v>368.3522814803187</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23698,28 +23943,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2338459547730095</v>
+        <v>0.2262213116868711</v>
       </c>
       <c r="J7" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K7" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03772674035661838</v>
+        <v>0.03611601364150829</v>
       </c>
       <c r="M7" t="n">
-        <v>6.691715827757841</v>
+        <v>6.658043935930436</v>
       </c>
       <c r="N7" t="n">
-        <v>80.17924278315192</v>
+        <v>79.51611287282283</v>
       </c>
       <c r="O7" t="n">
-        <v>8.954286279941686</v>
+        <v>8.917180769325181</v>
       </c>
       <c r="P7" t="n">
-        <v>376.1580383866874</v>
+        <v>376.2303037986132</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23776,28 +24021,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2511824450474024</v>
+        <v>0.2369639277855957</v>
       </c>
       <c r="J8" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04128782499673889</v>
+        <v>0.0374224072895275</v>
       </c>
       <c r="M8" t="n">
-        <v>7.036645307924605</v>
+        <v>7.033343497236056</v>
       </c>
       <c r="N8" t="n">
-        <v>84.48423867814112</v>
+        <v>84.35836692381481</v>
       </c>
       <c r="O8" t="n">
-        <v>9.191530812554626</v>
+        <v>9.18468110082298</v>
       </c>
       <c r="P8" t="n">
-        <v>378.1046284256412</v>
+        <v>378.2390803604533</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23854,28 +24099,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1259888869643861</v>
+        <v>0.1211536433844589</v>
       </c>
       <c r="J9" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K9" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01048501716598405</v>
+        <v>0.009917895528166132</v>
       </c>
       <c r="M9" t="n">
-        <v>6.993085625882965</v>
+        <v>6.948211177325656</v>
       </c>
       <c r="N9" t="n">
-        <v>86.95058657337158</v>
+        <v>86.11946569038356</v>
       </c>
       <c r="O9" t="n">
-        <v>9.324729839162719</v>
+        <v>9.280057418485274</v>
       </c>
       <c r="P9" t="n">
-        <v>378.5354259623692</v>
+        <v>378.5811089977295</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23932,28 +24177,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1264442641732798</v>
+        <v>0.1210338975328379</v>
       </c>
       <c r="J10" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K10" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009805957494427919</v>
+        <v>0.009201087575655409</v>
       </c>
       <c r="M10" t="n">
-        <v>7.664424066851863</v>
+        <v>7.603045357795649</v>
       </c>
       <c r="N10" t="n">
-        <v>93.33149715278257</v>
+        <v>92.33954576033331</v>
       </c>
       <c r="O10" t="n">
-        <v>9.660822798953648</v>
+        <v>9.609346791553175</v>
       </c>
       <c r="P10" t="n">
-        <v>384.6361459742501</v>
+        <v>384.6874524003185</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23991,7 +24236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K458"/>
+  <dimension ref="A1:K463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48685,6 +48930,291 @@
         </is>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-34.9886584495811,173.48020036403267</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-34.989500106765576,173.48050547240567</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-34.9896802696466,173.48134715270325</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-34.98977848541339,173.4822431288284</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-34.9900012579997,173.4831012206293</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-34.990129230827705,173.4839688559691</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-34.99020922403416,173.48482761719578</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-34.990231473991415,173.4857212582853</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>-34.9902861140279,173.48661993822375</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-34.98907189394816,173.47982326798046</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-34.98947591246204,173.48051757511965</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-34.9896667272097,173.48135005390242</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-34.98979961492493,173.4822357440197</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-34.98999259588868,173.48310463875072</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-34.9901806769839,173.48395598402115</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-34.99033653471141,173.48481909406718</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-34.99027299630143,173.4857188529771</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-34.99027894641434,173.48662092844526</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-34.98905622063222,173.47983756345184</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-34.98947106306857,173.48052000093034</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-34.98966055541056,173.48135137608793</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-34.98977837326641,173.48224316802398</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-34.99000407594245,173.48310010865188</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-34.99014689474418,173.48396443641795</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-34.99030274125989,173.48482135645583</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-34.99027146510996,173.4857189416761</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-34.99025661161842,173.48662401404513</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-34.98902259030601,173.47986823730534</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-34.98950255121084,173.48050424962062</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-34.989694922119206,173.4813440136998</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-34.98976878979661,173.48224651746554</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-34.99000362262124,173.48310028753522</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-34.9902091600482,173.48394885748527</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-34.99024941003092,173.48482492684732</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-34.990200309741184,173.48572306356942</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-34.99024527142971,173.48662558071587</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-34.98909066827071,173.4798061441035</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-34.989512386043415,173.48049932994084</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-34.98963702265107,173.48135641751307</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-34.989774728489344,173.48224444188085</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-34.98999918742439,173.4831020376909</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-34.990147159702914,173.48396437012465</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-34.99020736329345,173.48482774176748</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-34.990208235908895,173.48572260442214</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-34.99028071271911,173.4866206844264</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26538,7 +26538,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-34.99016045179996,173.48396104441116</t>
+          <t>-34.99016045179995,173.48396104441116</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.98908665378709,173.47980980567579</t>
+          <t>-34.98908665378708,173.47980980567579</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K463"/>
+  <dimension ref="A1:K466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17798,6 +17798,123 @@
       <c r="K463" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>365.4133333333334</v>
+      </c>
+      <c r="C464" t="n">
+        <v>370.2121052631579</v>
+      </c>
+      <c r="D464" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="E464" t="n">
+        <v>367.19</v>
+      </c>
+      <c r="F464" t="n">
+        <v>367.2157142857143</v>
+      </c>
+      <c r="G464" t="n">
+        <v>378.73</v>
+      </c>
+      <c r="H464" t="n">
+        <v>378.9633333333333</v>
+      </c>
+      <c r="I464" t="n">
+        <v>376.67</v>
+      </c>
+      <c r="J464" t="n">
+        <v>378.5414285714286</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>378.1433333333333</v>
+      </c>
+      <c r="C465" t="n">
+        <v>385.5394736842105</v>
+      </c>
+      <c r="D465" t="n">
+        <v>371.425</v>
+      </c>
+      <c r="E465" t="n">
+        <v>378.7405882352941</v>
+      </c>
+      <c r="F465" t="n">
+        <v>386.1871428571428</v>
+      </c>
+      <c r="G465" t="n">
+        <v>384.055</v>
+      </c>
+      <c r="H465" t="n">
+        <v>379.3633333333333</v>
+      </c>
+      <c r="I465" t="n">
+        <v>381.18</v>
+      </c>
+      <c r="J465" t="n">
+        <v>397.9742857142857</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>364.6866666666667</v>
+      </c>
+      <c r="C466" t="n">
+        <v>366.9352631578947</v>
+      </c>
+      <c r="D466" t="n">
+        <v>359.37</v>
+      </c>
+      <c r="E466" t="n">
+        <v>365.0111764705882</v>
+      </c>
+      <c r="F466" t="n">
+        <v>368.3914285714285</v>
+      </c>
+      <c r="G466" t="n">
+        <v>373.12</v>
+      </c>
+      <c r="H466" t="n">
+        <v>373.4266666666666</v>
+      </c>
+      <c r="I466" t="n">
+        <v>375.56</v>
+      </c>
+      <c r="J466" t="n">
+        <v>374.9628571428572</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17812,7 +17929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B556"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23380,6 +23497,36 @@
       </c>
       <c r="B556" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -23553,28 +23700,28 @@
         <v>0.0847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6398951892194986</v>
+        <v>0.618508282451789</v>
       </c>
       <c r="J2" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K2" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07772974131428434</v>
+        <v>0.07377023879813083</v>
       </c>
       <c r="M2" t="n">
-        <v>11.33769524979803</v>
+        <v>11.29228504992957</v>
       </c>
       <c r="N2" t="n">
-        <v>282.931774900026</v>
+        <v>282.4196976691992</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8205759384162</v>
+        <v>16.80534729391806</v>
       </c>
       <c r="P2" t="n">
-        <v>366.5671785614227</v>
+        <v>366.7674935801228</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23631,28 +23778,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2885511986330341</v>
+        <v>0.2872537758604244</v>
       </c>
       <c r="J3" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06139363923266983</v>
+        <v>0.06136195830067248</v>
       </c>
       <c r="M3" t="n">
-        <v>6.467946684615674</v>
+        <v>6.477570464223427</v>
       </c>
       <c r="N3" t="n">
-        <v>73.86772721869315</v>
+        <v>73.81710448930065</v>
       </c>
       <c r="O3" t="n">
-        <v>8.594633629113758</v>
+        <v>8.591688104749883</v>
       </c>
       <c r="P3" t="n">
-        <v>367.7505723464163</v>
+        <v>367.7629148417063</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23709,28 +23856,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3144594802692385</v>
+        <v>0.3066306980263493</v>
       </c>
       <c r="J4" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06097886212973791</v>
+        <v>0.05865756753938201</v>
       </c>
       <c r="M4" t="n">
-        <v>7.10846480742736</v>
+        <v>7.107575679061106</v>
       </c>
       <c r="N4" t="n">
-        <v>88.32929982429174</v>
+        <v>88.20809634163736</v>
       </c>
       <c r="O4" t="n">
-        <v>9.398366870062677</v>
+        <v>9.39191654251875</v>
       </c>
       <c r="P4" t="n">
-        <v>360.7705950336888</v>
+        <v>360.8448301113445</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23787,28 +23934,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3219887864302398</v>
+        <v>0.3213362477011754</v>
       </c>
       <c r="J5" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K5" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06743725037743475</v>
+        <v>0.067888479506927</v>
       </c>
       <c r="M5" t="n">
-        <v>7.105076149708076</v>
+        <v>7.095859164708061</v>
       </c>
       <c r="N5" t="n">
-        <v>83.7134466302645</v>
+        <v>83.39269825694501</v>
       </c>
       <c r="O5" t="n">
-        <v>9.149505266967417</v>
+        <v>9.131960263653419</v>
       </c>
       <c r="P5" t="n">
-        <v>362.5098744957595</v>
+        <v>362.5160692356471</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23865,28 +24012,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2831064606921425</v>
+        <v>0.2809041797625878</v>
       </c>
       <c r="J6" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05489788829221165</v>
+        <v>0.05447379386953577</v>
       </c>
       <c r="M6" t="n">
-        <v>6.782115852802385</v>
+        <v>6.794492490598191</v>
       </c>
       <c r="N6" t="n">
-        <v>80.42150128481278</v>
+        <v>80.40678177205427</v>
       </c>
       <c r="O6" t="n">
-        <v>8.967803593122051</v>
+        <v>8.966982868950641</v>
       </c>
       <c r="P6" t="n">
-        <v>368.3522814803187</v>
+        <v>368.3732576402766</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23943,28 +24090,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2262213116868711</v>
+        <v>0.2218172841342355</v>
       </c>
       <c r="J7" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03611601364150829</v>
+        <v>0.03515973518101001</v>
       </c>
       <c r="M7" t="n">
-        <v>6.658043935930436</v>
+        <v>6.646154945068703</v>
       </c>
       <c r="N7" t="n">
-        <v>79.51611287282283</v>
+        <v>79.1873736955761</v>
       </c>
       <c r="O7" t="n">
-        <v>8.917180769325181</v>
+        <v>8.898728768513854</v>
       </c>
       <c r="P7" t="n">
-        <v>376.2303037986132</v>
+        <v>376.272228247549</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24021,28 +24168,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2369639277855957</v>
+        <v>0.2278093457857813</v>
       </c>
       <c r="J8" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K8" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0374224072895275</v>
+        <v>0.03500906342477816</v>
       </c>
       <c r="M8" t="n">
-        <v>7.033343497236056</v>
+        <v>7.034938551265276</v>
       </c>
       <c r="N8" t="n">
-        <v>84.35836692381481</v>
+        <v>84.16794670577995</v>
       </c>
       <c r="O8" t="n">
-        <v>9.18468110082298</v>
+        <v>9.174309058767312</v>
       </c>
       <c r="P8" t="n">
-        <v>378.2390803604533</v>
+        <v>378.3260437934363</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24099,28 +24246,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1211536433844589</v>
+        <v>0.116112499233968</v>
       </c>
       <c r="J9" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009917895528166132</v>
+        <v>0.009231168798880418</v>
       </c>
       <c r="M9" t="n">
-        <v>6.948211177325656</v>
+        <v>6.924543769996432</v>
       </c>
       <c r="N9" t="n">
-        <v>86.11946569038356</v>
+        <v>85.66195221287845</v>
       </c>
       <c r="O9" t="n">
-        <v>9.280057418485274</v>
+        <v>9.255374234080351</v>
       </c>
       <c r="P9" t="n">
-        <v>378.5811089977295</v>
+        <v>378.6289804958525</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24177,28 +24324,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1210338975328379</v>
+        <v>0.1158746400075302</v>
       </c>
       <c r="J10" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K10" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009201087575655409</v>
+        <v>0.008484359901403837</v>
       </c>
       <c r="M10" t="n">
-        <v>7.603045357795649</v>
+        <v>7.62412179719258</v>
       </c>
       <c r="N10" t="n">
-        <v>92.33954576033331</v>
+        <v>92.51790911059112</v>
       </c>
       <c r="O10" t="n">
-        <v>9.609346791553175</v>
+        <v>9.618623036099873</v>
       </c>
       <c r="P10" t="n">
-        <v>384.6874524003185</v>
+        <v>384.7366207285331</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24236,7 +24383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K463"/>
+  <dimension ref="A1:K466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49215,6 +49362,177 @@
         </is>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-34.9891308611785,173.47976948450963</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-34.98952513051155,173.48049295477168</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-34.98973190851169,173.48133609008934</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-34.98980687389331,173.4822332069941</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-34.99006074109319,173.4830777482205</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-34.99016195323283,173.48396066874912</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-34.9902526813331,173.48482470784197</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-34.99026290845174,173.48571943734717</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-34.99033110360197,173.48661372281177</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-34.98903905690702,173.47985321830228</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-34.989397325950016,173.48055688638962</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-34.98961295707409,173.48136157308076</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-34.989706777607886,173.482268190828</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-34.989898035524234,173.48314195279372</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-34.990114923055216,173.4839724358042</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-34.990249079899506,173.48482494894876</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-34.990222286842524,173.48572179047903</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-34.990156994587004,173.48663777633158</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-34.98913610164054,173.47976470472742</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-34.9895524538777,173.4804792867888</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-34.98972000892811,173.48133863934294</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-34.98982575536697,173.48222660787485</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-34.99005065775967,173.48308172717086</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-34.99021150051702,173.48394827189378</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-34.99030253117626,173.48482137052042</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-34.99027290623133,173.48571885819467</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-34.990363165872736,173.48660929333215</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K466"/>
+  <dimension ref="A1:K471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17913,6 +17913,199 @@
         <v>374.9628571428572</v>
       </c>
       <c r="K466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>365.2966666666666</v>
+      </c>
+      <c r="C467" t="n">
+        <v>371.5168421052632</v>
+      </c>
+      <c r="D467" t="n">
+        <v>364.98</v>
+      </c>
+      <c r="E467" t="n">
+        <v>368.7770588235294</v>
+      </c>
+      <c r="F467" t="n">
+        <v>361.3485714285715</v>
+      </c>
+      <c r="G467" t="n">
+        <v>376.73</v>
+      </c>
+      <c r="H467" t="n">
+        <v>379.1566666666666</v>
+      </c>
+      <c r="I467" t="n">
+        <v>379.51</v>
+      </c>
+      <c r="J467" t="n">
+        <v>374.6971428571428</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>380.6766666666667</v>
+      </c>
+      <c r="C468" t="n">
+        <v>382.2178947368421</v>
+      </c>
+      <c r="D468" t="n">
+        <v>373.07</v>
+      </c>
+      <c r="E468" t="n">
+        <v>367.29</v>
+      </c>
+      <c r="F468" t="n">
+        <v>373.7342857142857</v>
+      </c>
+      <c r="G468" t="n">
+        <v>382.53</v>
+      </c>
+      <c r="H468" t="n">
+        <v>376.8566666666667</v>
+      </c>
+      <c r="I468" t="n">
+        <v>384.88</v>
+      </c>
+      <c r="J468" t="n">
+        <v>394.0185714285714</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>378.03</v>
+      </c>
+      <c r="C469" t="n">
+        <v>380.0852631578948</v>
+      </c>
+      <c r="D469" t="n">
+        <v>371.395</v>
+      </c>
+      <c r="E469" t="n">
+        <v>375.6682352941176</v>
+      </c>
+      <c r="F469" t="n">
+        <v>373.1414285714285</v>
+      </c>
+      <c r="G469" t="n">
+        <v>384.805</v>
+      </c>
+      <c r="H469" t="n">
+        <v>372.18</v>
+      </c>
+      <c r="I469" t="n">
+        <v>382.7</v>
+      </c>
+      <c r="J469" t="n">
+        <v>388.8028571428572</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>373.1433333333334</v>
+      </c>
+      <c r="C470" t="n">
+        <v>376.258947368421</v>
+      </c>
+      <c r="D470" t="n">
+        <v>361.05</v>
+      </c>
+      <c r="E470" t="n">
+        <v>366.37</v>
+      </c>
+      <c r="F470" t="n">
+        <v>368.9871428571428</v>
+      </c>
+      <c r="G470" t="n">
+        <v>387.67</v>
+      </c>
+      <c r="H470" t="n">
+        <v>367.6233333333333</v>
+      </c>
+      <c r="I470" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="J470" t="n">
+        <v>389.4142857142857</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="n">
+        <v>371.3242105263158</v>
+      </c>
+      <c r="D471" t="n">
+        <v>366.745</v>
+      </c>
+      <c r="E471" t="n">
+        <v>374.8664705882353</v>
+      </c>
+      <c r="F471" t="n">
+        <v>373.5128571428572</v>
+      </c>
+      <c r="G471" t="n">
+        <v>381.645</v>
+      </c>
+      <c r="H471" t="n">
+        <v>381.5433333333334</v>
+      </c>
+      <c r="I471" t="n">
+        <v>375.67</v>
+      </c>
+      <c r="J471" t="n">
+        <v>379.2357142857143</v>
+      </c>
+      <c r="K471" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17929,7 +18122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23527,6 +23720,56 @@
       </c>
       <c r="B559" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -23700,28 +23943,28 @@
         <v>0.0847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.618508282451789</v>
+        <v>0.601339388475561</v>
       </c>
       <c r="J2" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07377023879813083</v>
+        <v>0.07126570276353916</v>
       </c>
       <c r="M2" t="n">
-        <v>11.29228504992957</v>
+        <v>11.20992099646107</v>
       </c>
       <c r="N2" t="n">
-        <v>282.4196976691992</v>
+        <v>280.488565766333</v>
       </c>
       <c r="O2" t="n">
-        <v>16.80534729391806</v>
+        <v>16.74779286253365</v>
       </c>
       <c r="P2" t="n">
-        <v>366.7674935801228</v>
+        <v>366.9286680830906</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23778,28 +24021,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2872537758604244</v>
+        <v>0.2895708310442802</v>
       </c>
       <c r="J3" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K3" t="n">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06136195830067248</v>
+        <v>0.06352232915613654</v>
       </c>
       <c r="M3" t="n">
-        <v>6.477570464223427</v>
+        <v>6.450317905945439</v>
       </c>
       <c r="N3" t="n">
-        <v>73.81710448930065</v>
+        <v>73.19774863137997</v>
       </c>
       <c r="O3" t="n">
-        <v>8.591688104749883</v>
+        <v>8.555568282199609</v>
       </c>
       <c r="P3" t="n">
-        <v>367.7629148417063</v>
+        <v>367.7408833448549</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23856,28 +24099,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3066306980263493</v>
+        <v>0.3037790674859298</v>
       </c>
       <c r="J4" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05865756753938201</v>
+        <v>0.0587978928392715</v>
       </c>
       <c r="M4" t="n">
-        <v>7.107575679061106</v>
+        <v>7.071573525434473</v>
       </c>
       <c r="N4" t="n">
-        <v>88.20809634163736</v>
+        <v>87.43385700391963</v>
       </c>
       <c r="O4" t="n">
-        <v>9.39191654251875</v>
+        <v>9.350607306689744</v>
       </c>
       <c r="P4" t="n">
-        <v>360.8448301113445</v>
+        <v>360.872015618736</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23934,28 +24177,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3213362477011754</v>
+        <v>0.3208467126525723</v>
       </c>
       <c r="J5" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K5" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L5" t="n">
-        <v>0.067888479506927</v>
+        <v>0.06903293220575324</v>
       </c>
       <c r="M5" t="n">
-        <v>7.095859164708061</v>
+        <v>7.058503605662646</v>
       </c>
       <c r="N5" t="n">
-        <v>83.39269825694501</v>
+        <v>82.62877828203528</v>
       </c>
       <c r="O5" t="n">
-        <v>9.131960263653419</v>
+        <v>9.090037309166298</v>
       </c>
       <c r="P5" t="n">
-        <v>362.5160692356471</v>
+        <v>362.5206955808039</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24012,28 +24255,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2809041797625878</v>
+        <v>0.2695874991010413</v>
       </c>
       <c r="J6" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K6" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05447379386953577</v>
+        <v>0.05114221502768068</v>
       </c>
       <c r="M6" t="n">
-        <v>6.794492490598191</v>
+        <v>6.773078731129549</v>
       </c>
       <c r="N6" t="n">
-        <v>80.40678177205427</v>
+        <v>80.08215161881824</v>
       </c>
       <c r="O6" t="n">
-        <v>8.966982868950641</v>
+        <v>8.9488631467253</v>
       </c>
       <c r="P6" t="n">
-        <v>368.3732576402766</v>
+        <v>368.4813261209005</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24090,28 +24333,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2218172841342355</v>
+        <v>0.2231994923752732</v>
       </c>
       <c r="J7" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K7" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03515973518101001</v>
+        <v>0.03631663853552702</v>
       </c>
       <c r="M7" t="n">
-        <v>6.646154945068703</v>
+        <v>6.60364960149086</v>
       </c>
       <c r="N7" t="n">
-        <v>79.1873736955761</v>
+        <v>78.44688501085088</v>
       </c>
       <c r="O7" t="n">
-        <v>8.898728768513854</v>
+        <v>8.857024613878572</v>
       </c>
       <c r="P7" t="n">
-        <v>376.272228247549</v>
+        <v>376.2589778967174</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24168,28 +24411,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2278093457857813</v>
+        <v>0.2095680291257813</v>
       </c>
       <c r="J8" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K8" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03500906342477816</v>
+        <v>0.0300714166570859</v>
       </c>
       <c r="M8" t="n">
-        <v>7.034938551265276</v>
+        <v>7.054143856531272</v>
       </c>
       <c r="N8" t="n">
-        <v>84.16794670577995</v>
+        <v>84.33613641522351</v>
       </c>
       <c r="O8" t="n">
-        <v>9.174309058767312</v>
+        <v>9.18347082617588</v>
       </c>
       <c r="P8" t="n">
-        <v>378.3260437934363</v>
+        <v>378.4998386024529</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24246,28 +24489,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.116112499233968</v>
+        <v>0.1091273852979954</v>
       </c>
       <c r="J9" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K9" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009231168798880418</v>
+        <v>0.008303806522512835</v>
       </c>
       <c r="M9" t="n">
-        <v>6.924543769996432</v>
+        <v>6.900022561377003</v>
       </c>
       <c r="N9" t="n">
-        <v>85.66195221287845</v>
+        <v>85.17166250233943</v>
       </c>
       <c r="O9" t="n">
-        <v>9.255374234080351</v>
+        <v>9.228849467964002</v>
       </c>
       <c r="P9" t="n">
-        <v>378.6289804958525</v>
+        <v>378.6956531139512</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24324,28 +24567,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1158746400075302</v>
+        <v>0.1106363314866081</v>
       </c>
       <c r="J10" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008484359901403837</v>
+        <v>0.007864308509563767</v>
       </c>
       <c r="M10" t="n">
-        <v>7.62412179719258</v>
+        <v>7.606046416999013</v>
       </c>
       <c r="N10" t="n">
-        <v>92.51790911059112</v>
+        <v>92.1069033837352</v>
       </c>
       <c r="O10" t="n">
-        <v>9.618623036099873</v>
+        <v>9.597234152803358</v>
       </c>
       <c r="P10" t="n">
-        <v>384.7366207285331</v>
+        <v>384.7866807420971</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24383,7 +24626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K466"/>
+  <dimension ref="A1:K471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49533,6 +49776,287 @@
         </is>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-34.9891317025371,173.47976871711342</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-34.98951425119459,173.48049839693581</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-34.98967019052144,173.48134931195648</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-34.98979312059501,173.48223801380206</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-34.99011105974336,173.4830578921319</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-34.99017961714893,173.4839562491945</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-34.990250940640195,173.48482482437691</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-34.99023732854708,173.48572091914218</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-34.99036554654432,173.4866089644365</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-34.98902078739337,173.47986988172138</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-34.989425022353906,173.4805430318482</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-34.98959834900233,173.48136470256597</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-34.98980600730298,173.4822335098694</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-34.99000483556181,173.48309980890144</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-34.99012839179167,173.48396906589775</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-34.990271648883365,173.48482343801265</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-34.99018896091011,173.48572372098474</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-34.99019243587733,173.48663288005213</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-34.98903987422731,173.47985247283336</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-34.98944280492768,173.48053413648577</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-34.98961322348269,173.48136151600806</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-34.9897334023237,173.48225888544994</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-34.990009920110644,173.4830978025072</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-34.99010829908644,173.48397409313483</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-34.990313755644195,173.48482061907004</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-34.99020859618923,173.48572258355182</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-34.9902391661588,173.48662642417162</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-34.989075115150925,173.4798203299535</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-34.989474709988016,173.48051817663293</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-34.989705090047096,173.48134183542103</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-34.98981397993393,173.48223072341665</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-34.990045548707265,173.48308374323645</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-34.9900829955254,173.4839804241355</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-34.99035478197465,173.48481787245697</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-34.99033424395989,173.48571530501306</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-34.990233688054076,173.48662718098294</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.9895158574189,173.48049759345383</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.9896545168157,173.48135266973694</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-34.989740350339595,173.48225645710693</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-34.99000673461017,173.4830990595253</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-34.99013620807474,173.4839671102466</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-34.99022945208634,173.4848262629803</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-34.9902719154604,173.48571891558817</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-34.99032488313742,173.4866145821835</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K471"/>
+  <dimension ref="A1:K473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18106,6 +18106,84 @@
         <v>379.2357142857143</v>
       </c>
       <c r="K471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>363.84</v>
+      </c>
+      <c r="C472" t="n">
+        <v>363.9673684210526</v>
+      </c>
+      <c r="D472" t="n">
+        <v>358.205</v>
+      </c>
+      <c r="E472" t="n">
+        <v>357.7388235294118</v>
+      </c>
+      <c r="F472" t="n">
+        <v>355.5657142857143</v>
+      </c>
+      <c r="G472" t="n">
+        <v>373.255</v>
+      </c>
+      <c r="H472" t="n">
+        <v>365.62</v>
+      </c>
+      <c r="I472" t="n">
+        <v>364.57</v>
+      </c>
+      <c r="J472" t="n">
+        <v>377.5014285714286</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>369.2033333333333</v>
+      </c>
+      <c r="C473" t="n">
+        <v>366.648947368421</v>
+      </c>
+      <c r="D473" t="n">
+        <v>353.915</v>
+      </c>
+      <c r="E473" t="n">
+        <v>364.5141176470589</v>
+      </c>
+      <c r="F473" t="n">
+        <v>365.1442857142857</v>
+      </c>
+      <c r="G473" t="n">
+        <v>377.265</v>
+      </c>
+      <c r="H473" t="n">
+        <v>374.6633333333334</v>
+      </c>
+      <c r="I473" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="J473" t="n">
+        <v>378.1285714285714</v>
+      </c>
+      <c r="K473" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18122,7 +18200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23770,6 +23848,36 @@
       </c>
       <c r="B564" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -23943,28 +24051,28 @@
         <v>0.0847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.601339388475561</v>
+        <v>0.5852823331117794</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K2" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07126570276353916</v>
+        <v>0.06816619918499012</v>
       </c>
       <c r="M2" t="n">
-        <v>11.20992099646107</v>
+        <v>11.18823412119206</v>
       </c>
       <c r="N2" t="n">
-        <v>280.488565766333</v>
+        <v>280.3753599562179</v>
       </c>
       <c r="O2" t="n">
-        <v>16.74779286253365</v>
+        <v>16.74441279819086</v>
       </c>
       <c r="P2" t="n">
-        <v>366.9286680830906</v>
+        <v>367.0800545480159</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24021,28 +24129,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2895708310442802</v>
+        <v>0.2810802195985623</v>
       </c>
       <c r="J3" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K3" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06352232915613654</v>
+        <v>0.06025058448653176</v>
       </c>
       <c r="M3" t="n">
-        <v>6.450317905945439</v>
+        <v>6.465176684992848</v>
       </c>
       <c r="N3" t="n">
-        <v>73.19774863137997</v>
+        <v>73.31901918088475</v>
       </c>
       <c r="O3" t="n">
-        <v>8.555568282199609</v>
+        <v>8.562652578546251</v>
       </c>
       <c r="P3" t="n">
-        <v>367.7408833448549</v>
+        <v>367.8220818747528</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24099,28 +24207,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3037790674859298</v>
+        <v>0.2930498713918801</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K4" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0587978928392715</v>
+        <v>0.05498572826054282</v>
       </c>
       <c r="M4" t="n">
-        <v>7.071573525434473</v>
+        <v>7.091888890200681</v>
       </c>
       <c r="N4" t="n">
-        <v>87.43385700391963</v>
+        <v>87.78155720291666</v>
       </c>
       <c r="O4" t="n">
-        <v>9.350607306689744</v>
+        <v>9.369181245067077</v>
       </c>
       <c r="P4" t="n">
-        <v>360.872015618736</v>
+        <v>360.9744409317619</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24177,28 +24285,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3208467126525723</v>
+        <v>0.3128902134434129</v>
       </c>
       <c r="J5" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K5" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06903293220575324</v>
+        <v>0.06608290660901228</v>
       </c>
       <c r="M5" t="n">
-        <v>7.058503605662646</v>
+        <v>7.066406127327537</v>
       </c>
       <c r="N5" t="n">
-        <v>82.62877828203528</v>
+        <v>82.72741853545628</v>
       </c>
       <c r="O5" t="n">
-        <v>9.090037309166298</v>
+        <v>9.095461425098579</v>
       </c>
       <c r="P5" t="n">
-        <v>362.5206955808039</v>
+        <v>362.5965979612852</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24255,28 +24363,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2695874991010413</v>
+        <v>0.2572141698987317</v>
       </c>
       <c r="J6" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K6" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05114221502768068</v>
+        <v>0.04655189830970263</v>
       </c>
       <c r="M6" t="n">
-        <v>6.773078731129549</v>
+        <v>6.803660926962006</v>
       </c>
       <c r="N6" t="n">
-        <v>80.08215161881824</v>
+        <v>80.83783851729542</v>
       </c>
       <c r="O6" t="n">
-        <v>8.9488631467253</v>
+        <v>8.990986515243776</v>
       </c>
       <c r="P6" t="n">
-        <v>368.4813261209005</v>
+        <v>368.5999919731844</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24333,28 +24441,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2231994923752732</v>
+        <v>0.2176091092039306</v>
       </c>
       <c r="J7" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K7" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03631663853552702</v>
+        <v>0.0347906108568774</v>
       </c>
       <c r="M7" t="n">
-        <v>6.60364960149086</v>
+        <v>6.606079243854799</v>
       </c>
       <c r="N7" t="n">
-        <v>78.44688501085088</v>
+        <v>78.31693694668559</v>
       </c>
       <c r="O7" t="n">
-        <v>8.857024613878572</v>
+        <v>8.849685697621446</v>
       </c>
       <c r="P7" t="n">
-        <v>376.2589778967174</v>
+        <v>376.3125246133101</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24411,28 +24519,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2095680291257813</v>
+        <v>0.198148790135538</v>
       </c>
       <c r="J8" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K8" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0300714166570859</v>
+        <v>0.02691526372559538</v>
       </c>
       <c r="M8" t="n">
-        <v>7.054143856531272</v>
+        <v>7.086230426134475</v>
       </c>
       <c r="N8" t="n">
-        <v>84.33613641522351</v>
+        <v>84.89804964012166</v>
       </c>
       <c r="O8" t="n">
-        <v>9.18347082617588</v>
+        <v>9.214013763833959</v>
       </c>
       <c r="P8" t="n">
-        <v>378.4998386024529</v>
+        <v>378.6090244096787</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24489,28 +24597,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1091273852979954</v>
+        <v>0.09681654736949255</v>
       </c>
       <c r="J9" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K9" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008303806522512835</v>
+        <v>0.006528864435412784</v>
       </c>
       <c r="M9" t="n">
-        <v>6.900022561377003</v>
+        <v>6.931779674824044</v>
       </c>
       <c r="N9" t="n">
-        <v>85.17166250233943</v>
+        <v>85.79982426177763</v>
       </c>
       <c r="O9" t="n">
-        <v>9.228849467964002</v>
+        <v>9.262819455315841</v>
       </c>
       <c r="P9" t="n">
-        <v>378.6956531139512</v>
+        <v>378.8133577462345</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24567,28 +24675,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1106363314866081</v>
+        <v>0.102453448142049</v>
       </c>
       <c r="J10" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K10" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007864308509563767</v>
+        <v>0.006780485287330551</v>
       </c>
       <c r="M10" t="n">
-        <v>7.606046416999013</v>
+        <v>7.615439400289145</v>
       </c>
       <c r="N10" t="n">
-        <v>92.1069033837352</v>
+        <v>92.12329592702883</v>
       </c>
       <c r="O10" t="n">
-        <v>9.597234152803358</v>
+        <v>9.598088139157133</v>
       </c>
       <c r="P10" t="n">
-        <v>384.7866807420971</v>
+        <v>384.8651738841038</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24626,7 +24734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K471"/>
+  <dimension ref="A1:K473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50057,6 +50165,120 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-34.98914220749974,173.47975913562257</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.989577201139696,173.48046690744354</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.98973035446161,173.48133642301428</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-34.98988877687032,173.48220458168936</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-34.99016065552666,173.48303832126686</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-34.99021030820271,173.48394857021398</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-34.99037281915421,173.48481666491088</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-34.99037189325549,173.48571312405636</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-34.99034042149946,173.4866124355222</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.98910352904085,173.47979441391436</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.989554841271016,173.48047809254123</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.9897684508892,173.48132826159343</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-34.98983006283053,173.48222510240583</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-34.990078506382794,173.48307073791682</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-34.99017489205139,173.48395743142555</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-34.99029139674414,173.48482211594296</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-34.99033379360946,173.48571533110103</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-34.99033480260249,173.48661321178616</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K473"/>
+  <dimension ref="A1:K474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18184,6 +18184,43 @@
         <v>378.1285714285714</v>
       </c>
       <c r="K473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="n">
+        <v>373.6147368421053</v>
+      </c>
+      <c r="D474" t="n">
+        <v>363.44</v>
+      </c>
+      <c r="E474" t="n">
+        <v>367.0864705882353</v>
+      </c>
+      <c r="F474" t="n">
+        <v>368.8042857142857</v>
+      </c>
+      <c r="G474" t="n">
+        <v>378.81</v>
+      </c>
+      <c r="H474" t="n">
+        <v>373.2566666666667</v>
+      </c>
+      <c r="I474" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="J474" t="n">
+        <v>380.0885714285714</v>
+      </c>
+      <c r="K474" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18200,7 +18237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23878,6 +23915,16 @@
       </c>
       <c r="B567" t="n">
         <v>0.27</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -24054,7 +24101,7 @@
         <v>0.5852823331117794</v>
       </c>
       <c r="J2" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K2" t="n">
         <v>372</v>
@@ -24129,28 +24176,28 @@
         <v>0.1078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2810802195985623</v>
+        <v>0.2804274639314238</v>
       </c>
       <c r="J3" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K3" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06025058448653176</v>
+        <v>0.06025121303647163</v>
       </c>
       <c r="M3" t="n">
-        <v>6.465176684992848</v>
+        <v>6.453739680189376</v>
       </c>
       <c r="N3" t="n">
-        <v>73.31901918088475</v>
+        <v>73.15504634104339</v>
       </c>
       <c r="O3" t="n">
-        <v>8.562652578546251</v>
+        <v>8.553072333439218</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8220818747528</v>
+        <v>367.8283529485888</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24207,28 +24254,28 @@
         <v>0.0852</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2930498713918801</v>
+        <v>0.2908644843063234</v>
       </c>
       <c r="J4" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K4" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05498572826054282</v>
+        <v>0.05441918536476498</v>
       </c>
       <c r="M4" t="n">
-        <v>7.091888890200681</v>
+        <v>7.086474535144504</v>
       </c>
       <c r="N4" t="n">
-        <v>87.78155720291666</v>
+        <v>87.64199062025163</v>
       </c>
       <c r="O4" t="n">
-        <v>9.369181245067077</v>
+        <v>9.361730108278685</v>
       </c>
       <c r="P4" t="n">
-        <v>360.9744409317619</v>
+        <v>360.9953979946861</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24285,28 +24332,28 @@
         <v>0.09279999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3128902134434129</v>
+        <v>0.3113907712112782</v>
       </c>
       <c r="J5" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K5" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06608290660901228</v>
+        <v>0.06574869480545475</v>
       </c>
       <c r="M5" t="n">
-        <v>7.066406127327537</v>
+        <v>7.058013423184916</v>
       </c>
       <c r="N5" t="n">
-        <v>82.72741853545628</v>
+        <v>82.57279386027933</v>
       </c>
       <c r="O5" t="n">
-        <v>9.095461425098579</v>
+        <v>9.086957348875329</v>
       </c>
       <c r="P5" t="n">
-        <v>362.5965979612852</v>
+        <v>362.6109683609589</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24363,28 +24410,28 @@
         <v>0.0743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2572141698987317</v>
+        <v>0.2545534955184112</v>
       </c>
       <c r="J6" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K6" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04655189830970263</v>
+        <v>0.04578339177333601</v>
       </c>
       <c r="M6" t="n">
-        <v>6.803660926962006</v>
+        <v>6.801625388138031</v>
       </c>
       <c r="N6" t="n">
-        <v>80.83783851729542</v>
+        <v>80.7507294195735</v>
       </c>
       <c r="O6" t="n">
-        <v>8.990986515243776</v>
+        <v>8.986140963704804</v>
       </c>
       <c r="P6" t="n">
-        <v>368.5999919731844</v>
+        <v>368.6256278772034</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24441,28 +24488,28 @@
         <v>0.0929</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2176091092039306</v>
+        <v>0.2163027364403972</v>
       </c>
       <c r="J7" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K7" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0347906108568774</v>
+        <v>0.03453018470928282</v>
       </c>
       <c r="M7" t="n">
-        <v>6.606079243854799</v>
+        <v>6.598814769753894</v>
       </c>
       <c r="N7" t="n">
-        <v>78.31693694668559</v>
+        <v>78.16371983128056</v>
       </c>
       <c r="O7" t="n">
-        <v>8.849685697621446</v>
+        <v>8.841024817931491</v>
       </c>
       <c r="P7" t="n">
-        <v>376.3125246133101</v>
+        <v>376.3250954608692</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24519,28 +24566,28 @@
         <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.198148790135538</v>
+        <v>0.1937925867976346</v>
       </c>
       <c r="J8" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K8" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02691526372559538</v>
+        <v>0.0258162721970473</v>
       </c>
       <c r="M8" t="n">
-        <v>7.086230426134475</v>
+        <v>7.095249265739281</v>
       </c>
       <c r="N8" t="n">
-        <v>84.89804964012166</v>
+        <v>84.9543301463785</v>
       </c>
       <c r="O8" t="n">
-        <v>9.214013763833959</v>
+        <v>9.21706732894897</v>
       </c>
       <c r="P8" t="n">
-        <v>378.6090244096787</v>
+        <v>378.6508705364486</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24597,28 +24644,28 @@
         <v>0.0418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09681654736949255</v>
+        <v>0.09459704970838151</v>
       </c>
       <c r="J9" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K9" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006528864435412784</v>
+        <v>0.006258343649452214</v>
       </c>
       <c r="M9" t="n">
-        <v>6.931779674824044</v>
+        <v>6.927411517249991</v>
       </c>
       <c r="N9" t="n">
-        <v>85.79982426177763</v>
+        <v>85.66811273256988</v>
       </c>
       <c r="O9" t="n">
-        <v>9.262819455315841</v>
+        <v>9.255707035800663</v>
       </c>
       <c r="P9" t="n">
-        <v>378.8133577462345</v>
+        <v>378.834678776356</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24675,28 +24722,28 @@
         <v>0.0372</v>
       </c>
       <c r="I10" t="n">
-        <v>0.102453448142049</v>
+        <v>0.09935477044514487</v>
       </c>
       <c r="J10" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K10" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006780485287330551</v>
+        <v>0.006399326443974562</v>
       </c>
       <c r="M10" t="n">
-        <v>7.615439400289145</v>
+        <v>7.614739786306426</v>
       </c>
       <c r="N10" t="n">
-        <v>92.12329592702883</v>
+        <v>92.03826498861335</v>
       </c>
       <c r="O10" t="n">
-        <v>9.598088139157133</v>
+        <v>9.593657539677626</v>
       </c>
       <c r="P10" t="n">
-        <v>384.8651738841038</v>
+        <v>384.8950371942996</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -24734,7 +24781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K473"/>
+  <dimension ref="A1:K474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50279,6 +50326,59 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.98949675827054,173.48050714742345</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.989683866162615,173.48134638222066</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-34.989807771069174,173.4822328934291</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-34.990047116953576,173.4830831243962</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-34.99016124667617,173.48396084553127</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-34.99030406178552,173.48482126804993</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-34.990269033217615,173.48571908255107</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-34.990317241949484,173.4866156378313</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0041/nzd0041.xlsx
+++ b/data/nzd0041/nzd0041.xlsx
@@ -24089,13 +24089,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0847</v>
+        <v>0.0342</v>
       </c>
       <c r="I2" t="n">
         <v>0.5852947078870576</v>
@@ -24167,13 +24167,13 @@
         <v>0.1239546927797713</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.0728</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1078</v>
+        <v>0.1148</v>
       </c>
       <c r="I3" t="n">
         <v>0.2804497040831941</v>
@@ -24245,13 +24245,13 @@
         <v>0.248497463876318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0852</v>
+        <v>0.1075</v>
       </c>
       <c r="I4" t="n">
         <v>0.2908784500170675</v>
@@ -24323,13 +24323,13 @@
         <v>0.3737862481745764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0785</v>
+        <v>0.097</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.1468</v>
       </c>
       <c r="I5" t="n">
         <v>0.311359558045558</v>
@@ -24401,13 +24401,13 @@
         <v>0.4994148692348965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0873</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0743</v>
+        <v>0.1375</v>
       </c>
       <c r="I6" t="n">
         <v>0.2545580816797748</v>
@@ -24479,13 +24479,13 @@
         <v>0.6248961758031895</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0737</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0929</v>
+        <v>0.122</v>
       </c>
       <c r="I7" t="n">
         <v>0.2162829341819333</v>
@@ -24557,13 +24557,13 @@
         <v>0.7502373060492721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0683</v>
+        <v>0.0738</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.1274</v>
       </c>
       <c r="I8" t="n">
         <v>0.193801439697605</v>
@@ -24635,13 +24635,13 @@
         <v>0.8757363893686159</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0397</v>
+        <v>0.0436</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0418</v>
+        <v>0.0504</v>
       </c>
       <c r="I9" t="n">
         <v>0.09459704970838151</v>
@@ -24713,13 +24713,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0348</v>
+        <v>0.0488</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0372</v>
+        <v>0.0553</v>
       </c>
       <c r="I10" t="n">
         <v>0.09934623950687882</v>
